--- a/File-Bogar.xlsx
+++ b/File-Bogar.xlsx
@@ -582,79 +582,79 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.3845905228370162</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.3378676457234995</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.256531221522571</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.8677709306104389</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.8861878698074973</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.6065769924444219</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.04664417612569494</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3214062913035424</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.6690938659538321</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5223289656698558</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.7348449320284934</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.7787981647971886</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.0815218786474563</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2457458330731016</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.3977664813520013</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.6915757403275662</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.1898912127140546</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.9536511352219132</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.8814142749650226</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.1648593963158985</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.7030056171633035</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.5652737429973282</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.4370973829248598</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.7460206464714221</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.0869684320084736</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -663,79 +663,79 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.692706539490096</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.1799082065804316</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.08868777337178146</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6270781959231581</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.6349079340876099</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.02546414674763897</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.08666018574934709</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2508788977712321</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9669878361291495</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.760779805225329</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.1843793237949508</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.3353709444364932</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.4565176527178747</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.802804878880739</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0.6517807020929919</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.5066629391030287</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.7161079957341188</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.4413838948586011</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.6443637997064331</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.9309198610238864</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.9516751130658763</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.8141130062385864</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.3383237876682095</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.1421596294149594</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.7637077999442609</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -744,79 +744,79 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.2059171396506189</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.1901057481014324</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.9776853858306295</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.8298903425130139</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.1965633939597439</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.9070328526400752</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.9617948244524489</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.9039495204303242</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.1345620100187788</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.1697335348253042</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0.662651616387983</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.2669917746472933</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.714059747283657</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.7008459184855954</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0.9072192751337276</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0.2624843810400084</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0.7788860720496171</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0.5196453491147432</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.8389193912992318</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0.07144687301309138</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.7253677704302166</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.2657484548580028</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.5152809876652615</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.902969332203042</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.5694094697553402</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -825,79 +825,79 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.9797295406421929</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.6912027444056033</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.358300726636441</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.02149035943722366</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.2066704408719867</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0.215107473579677</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.05897407972593338</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.4519655879615817</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.2700933614707384</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.8439479531155768</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0.7647796854678912</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.2663882635121819</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.4705345283889398</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.8426039019595792</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0.2254116696132193</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0.9043432680818922</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0.09713932451224316</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0.2007487292708698</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0.3356929911060763</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0.5362411394171011</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0.9725433317396551</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0.9854737369890805</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0.615641903892216</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.9051725174849897</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0.8749438838022188</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -908,79 +908,79 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.6953819102504039</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9248135754761101</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.6056860257441945</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.8217559428963656</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.1218529894909027</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.7261262802811919</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0.7117817628639171</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.1891516802559794</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.7596554863591062</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.9214063099626577</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.2761952706373414</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.6501910376572918</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0.5718137156934051</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0.2720164752773895</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0.1962547214766919</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0.3352048983184456</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0.681514577301946</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0.208934276192302</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0.9912475340997901</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0.6042901864910812</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0.9117228159709274</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0.7276263975671079</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0.8635376479890361</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0.3960786518633423</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0.9725501895911985</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -989,79 +989,79 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.5982122223334939</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.3038840747917064</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.07993223705274777</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.266739331953704</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.4530983321618389</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.9099969886767139</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0.8601620747692047</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.9530825554276486</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.841024098281326</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.004092475677723639</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.3625681661834533</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.09904927788638096</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0.3843609143898927</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0.8054321430596219</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0.5517940232744888</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0.7757748411814935</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0.4307201818947008</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0.5090789248445965</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0.2345988072742422</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0.03978193717014511</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0.6930441820969776</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0.6179364478076476</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0.4423268943362298</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.4315041102973202</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0.07838412640981141</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1070,79 +1070,79 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.07341050738162724</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.4150035438007603</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.8504213130084644</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3756745326771441</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.4581418491453347</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.02211224393454703</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.2147113872335163</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0.301596595404529</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.3693629462044005</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.0950987965955743</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.5285242615346849</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.1438613139611419</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0.6825468031841951</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0.9633461290314248</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0.6502574002750759</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0.6090454017105763</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0.01719747448731435</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0.3642055225901073</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0.09846312346301733</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0.8767281566951757</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0.1413803604334822</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0.2304650192342329</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0.1021746662024694</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.6475731267298415</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0.4643384333639911</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1151,79 +1151,79 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.6813013468555168</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.6280967152446073</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.7600586231110996</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.4233139069659647</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.2851150469860557</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.5193211440781528</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0.4819340967132848</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.3130431440509578</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.295900113520271</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5463697646063915</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.7964461602736029</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.009428718061236463</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0.6856212895997209</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0.1734857261791317</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0.8386459394088065</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0.7399564526607587</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0.5441699895896358</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0.7937435521305656</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0.7945736533709451</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0.8504467585927894</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0.1570909651636725</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0.9210539343567381</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0.5482774421388595</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0.7972182618034774</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0.3713784553310536</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1234,79 +1234,79 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.1973137455136557</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.443164822962119</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.8793921268228018</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.4204942088002684</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.5858187282559089</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.007418676579126426</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0.4187157789898424</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0.7453991216542368</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.7985765109318584</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.2871549149296354</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0.06411755959178322</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.6607442649250571</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0.1093118678291161</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0.2355862664991949</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0.5160901986691954</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0.0084005407223261</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0.8893353587403445</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0.6024137902111643</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0.1078178274154337</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0.7982343551212405</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0.1882740467400108</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0.0653219414099635</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0.4071668195397631</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0.2044983586165333</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0.5161560597474065</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1315,79 +1315,79 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.459909199301198</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.6894633706164705</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.8829232361053215</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6037078653872444</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.1979699724098873</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.3521817330305498</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0.7540662445998806</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0.1572835015333649</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.9989354216879351</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.2342855949542668</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0.6870212213440408</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.4439696793518075</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0.1776776306622211</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0.771767114930333</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0.5286972676499038</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0.9361374098800587</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0.1271628351920252</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0.8583228536125558</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0.5753101800505876</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0.1127604065181101</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0.0844481497268702</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>0.8058789546394649</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>0.5770885808870759</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.0930384212647104</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0.2419302426357194</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1396,79 +1396,79 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.6747730726115226</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.7904216282116395</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.2439585455479648</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.9791482619351233</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.06384140699436247</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.2149253199271129</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.3948911120854436</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.9115032780332133</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0.7096309142437334</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.07353532486627778</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0.4666063580820584</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.02329349258637403</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0.9050956771156866</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0.0249886383709631</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0.4335057329314905</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0.4261297697496919</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0.467681146556741</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0.1898535966156571</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0.1809908129597516</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0.1733441482082575</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0.1197325889064341</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>0.3894098931638865</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0.660070757772877</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.2865894869819507</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0.03679191852556962</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1477,79 +1477,79 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.3607686350815921</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.6001010002175302</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.2218887371460502</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.2788419914968738</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.1252494457702613</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0.9536482080301583</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0.07393405943123199</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0.6525059737769117</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.05229646919733988</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.2870415320311345</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0.4702962904444931</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.7438083385082702</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0.8350364901725533</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0.9158094338677618</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0.7316888311107498</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0.1894237281639813</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0.6076763111717379</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0.517771289230391</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0.5611155823029028</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0.4130216809730263</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0.1711374648952204</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0.7499794413925122</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0.7844891248052019</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0.1966612930171535</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0.01022601583630234</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -1560,79 +1560,79 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.9028236374083158</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.4114265902450325</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.3610076753613645</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.1355304237129316</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.7880865604336188</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0.7027135378206706</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0.3787986533949584</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0.2290148673214542</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0.8994571149784598</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.470737229421145</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0.5076241493011344</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.3949795827328584</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0.7767230869685394</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0.2312592311559036</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0.877369460725674</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0.08568247043398258</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0.5478799841837915</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0.4230721395826842</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0.248979644658444</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0.2589145486936237</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0.6349773534137603</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0.6898242687273602</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0.8509668466948235</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0.6179310077763154</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0.08447840449256105</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -1641,79 +1641,79 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.3448992606895989</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.2043191143432854</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.8261414119271625</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.06963541968212172</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0.7544336445353166</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0.5724729570252499</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0.1319741519577408</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0.3120124774174348</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0.3100174780585575</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.4679806951249543</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0.7785156870685854</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.3115049755718771</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0.807348751656681</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0.1098215001981819</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0.4057063931638073</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0.9358098008103448</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0.2983708648412066</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0.7622301303558686</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0.08387192642849384</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0.4835009670989462</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0.1228201037457782</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0.9794665798972725</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0.4951768524559771</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0.9091771795596512</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0.04254879485063734</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -1722,79 +1722,79 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.7747237280425661</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.6885438002086151</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.02265807988071822</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.8752234346983695</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0.9725518196820828</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0.307972366838798</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0.4235896821169171</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0.7892565123173255</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0.9952625482880502</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.8231324325736309</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0.9215505801690564</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.05847153448811182</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0.8714779311516034</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0.270720135564507</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0.178845680426661</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0.8308066123420278</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0.5512207200775</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0.5904216090284374</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0.1619590641360422</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0.2541902477328944</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0.1047251856426263</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0.7430027086626309</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0.06515711600191099</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0.7352458374641183</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0.9604388829177025</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -1803,79 +1803,79 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.5074425464611053</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.04051640747744001</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.5993943368991456</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6590124805324207</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0.6450907983830007</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0.8057267321041092</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0.3655711689890629</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0.508868882138323</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0.9299385561813261</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.8549100416961288</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0.5894898264544672</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.544578963888171</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0.9380794749092548</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0.05034323037344324</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0.8347024795874129</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>0.3664889564635077</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0.8282070540149256</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0.3153104474753781</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0.6072679676378369</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0.7581014790092054</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0.4510419462063096</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0.7944277275941564</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0.583753852876419</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0.7893120431293231</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0.5060428954910441</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -1886,79 +1886,79 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.1189273376127894</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.6115611614538087</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.08297277081688759</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.571602386788762</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.4465407100651221</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0.2247190848906551</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0.1145179003160237</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0.02144373875387984</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0.6846155083086448</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.7529275973907195</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0.3884845265472567</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.4523046921007325</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0.2904498571834097</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0.5691149933524902</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0.3628644910820853</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0.4869534355178983</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0.7512758885503558</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0.8876159485796248</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0.7089687857559499</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0.1581937866174854</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0.7605615223383291</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0.1597609032660844</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0.4739701241846275</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0.1775932284837535</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0.5573065344991749</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -1967,79 +1967,79 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0.6075135878029368</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.4687357829685298</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.06710188297420605</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.4853228802443311</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.754974958271421</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0.8777699827967134</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0.232279531740838</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0.5155285651412268</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0.9386051293855932</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.9974732790038897</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0.2369563293938741</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.8550248591210433</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0.3762740884847742</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0.9772659984875217</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0.2392762318769444</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0.8084499695571546</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0.02737142724808173</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0.8885423924718713</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0.7326652343030626</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0.2132731948282546</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0.6058243158811344</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0.3931120462873822</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0.3511479466023204</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0.279713943028051</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0.8952407435403221</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -2048,79 +2048,79 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.08981247153812155</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.5381118955887847</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0.08652396529995998</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.2152951404613134</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0.2462922270616539</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0.0695650193623697</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0.6605184447684461</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0.5638841699386762</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0.8711952510138442</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.2085081756614414</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0.9395127025530132</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.314263309432359</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0.6056843966418292</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0.6449459894724894</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0.6294461549384011</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0.7930780167558596</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0.4756067337496007</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0.9933499487588762</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0.728173684438051</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0.9902954506720765</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0.8510446337502177</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0.009084474273095666</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>0.9667546788491985</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>0.3109405765823315</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0.5971859069662298</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -2129,79 +2129,79 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.7027201956500491</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.5126498986091048</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0.2872806718468871</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.5740653334488153</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0.5646721443977396</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0.6420559856321509</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0.4697931652831968</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0.4091414464406697</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0.6451745037889443</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.5300682768388171</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0.1143020999321496</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.7403189714151746</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0.9616280489150481</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0.6636808216625391</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>0.5853635109118605</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>0.5722940347536184</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>0.1965373622376967</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0.8581693086576467</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0.8590574605956377</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>0.4220241360618726</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0.1286006557580504</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0.2903336806099295</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0.2066025189661502</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0.6549944402988532</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>0.4010541503458231</v>
       </c>
     </row>
   </sheetData>
